--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,24 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>fName</t>
-  </si>
-  <si>
-    <t>lName</t>
-  </si>
-  <si>
-    <t>venkatesh</t>
-  </si>
-  <si>
-    <t>swaminathan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>kaushbabbi@ggmail</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>kaushbabbi@gmail.com</t>
+  </si>
+  <si>
+    <t>CENA@wwe2014</t>
   </si>
 </sst>
 </file>
@@ -76,9 +70,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -387,41 +382,36 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
